--- a/ZET-Project/Classes/Data/EmployeeReports.xlsx
+++ b/ZET-Project/Classes/Data/EmployeeReports.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AsusWindows\Инсаф\KAI\Сайфудинов ИР\KAI\ZET-Project\ZET-Project\Classes\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29500DB0-AC6C-4659-9324-273DC089CBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8079F319-271A-4569-BFD8-AA2B6480F273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4332" yWindow="3156" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Образец" sheetId="1" r:id="rId1"/>
+    <sheet name="Director" sheetId="2" r:id="rId2"/>
+    <sheet name="Accountant" sheetId="3" r:id="rId3"/>
+    <sheet name="Freelancer" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>Дата</t>
   </si>
@@ -37,19 +47,61 @@
   </si>
   <si>
     <t>Замечание</t>
+  </si>
+  <si>
+    <t>Гильметдинов Инсаф</t>
+  </si>
+  <si>
+    <t>Чилил</t>
+  </si>
+  <si>
+    <t>Не знаю почему</t>
+  </si>
+  <si>
+    <t>Страдал</t>
+  </si>
+  <si>
+    <t>ЕЕЕЕЕ</t>
+  </si>
+  <si>
+    <t>Вишмут Ляров</t>
+  </si>
+  <si>
+    <t>Инсаф Гильметдинов</t>
+  </si>
+  <si>
+    <t>Александр Акеев</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>02/01/2021</t>
+  </si>
+  <si>
+    <t>03/01/2021</t>
+  </si>
+  <si>
+    <t>04/01/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,9 +125,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -357,42 +414,456 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="10.109375" customWidth="1" style="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v0dYstABy4VTrfrh9Jiy8PM+t1e25fyfEg80SmZjoirbf1/8gf9zRHOj1E+wEkjumWWG4ufxpKSz/nXnBRue0Q==" saltValue="RyDvV90xFSDCcHB5uMfnAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" password="cf7a"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5FE7FA-1A4D-418D-90EF-D508F64CBE82}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F83D1EB-9CE9-4B94-ABF8-49CF95841811}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A02A8D1-A072-4DA7-866C-09575401673C}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ZET-Project/Classes/Data/EmployeeReports.xlsx
+++ b/ZET-Project/Classes/Data/EmployeeReports.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AsusWindows\Инсаф\KAI\Сайфудинов ИР\KAI\ZET-Project\ZET-Project\Classes\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8079F319-271A-4569-BFD8-AA2B6480F273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CE990F-9D45-493F-95F1-555D31096BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="3156" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4332" yWindow="3156" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Образец" sheetId="1" r:id="rId1"/>
-    <sheet name="Director" sheetId="2" r:id="rId2"/>
-    <sheet name="Accountant" sheetId="3" r:id="rId3"/>
-    <sheet name="Freelancer" sheetId="4" r:id="rId4"/>
+    <sheet name="Director" sheetId="2" r:id="rId1"/>
+    <sheet name="Accountant" sheetId="3" r:id="rId2"/>
+    <sheet name="Freelancer" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>Дата</t>
   </si>
@@ -47,9 +46,6 @@
   </si>
   <si>
     <t>Замечание</t>
-  </si>
-  <si>
-    <t>Гильметдинов Инсаф</t>
   </si>
   <si>
     <t>Чилил</t>
@@ -412,105 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="6" width="16.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44197</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>44198</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>44199</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>44200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5FE7FA-1A4D-418D-90EF-D508F64CBE82}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,59 +440,59 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -599,12 +501,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F83D1EB-9CE9-4B94-ABF8-49CF95841811}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,58 +533,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A02A8D1-A072-4DA7-866C-09575401673C}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -724,58 +626,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
